--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51566.49020478843</v>
+        <v>49375.22026536683</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571014</v>
+        <v>23845934.64571015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059643</v>
+        <v>9134618.11205964</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4905162.638556036</v>
+        <v>4874421.447654598</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>343.8308074931169</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -753,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.94516649828807</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>5.08148512872441</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>202.0747621797769</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>375.5664525646222</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>96.33500870204648</v>
+        <v>17.26579423647301</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>38.21796821522332</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1198,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>232.3831290571786</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>35.55733770599734</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>53.06817090119712</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>374.0142720497965</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>383.3590907834184</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>117.7133750757513</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>23.35666310702078</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,13 +1609,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>399.0554100416494</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>157.9690129180228</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>424.2958575201043</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="D17" t="n">
         <v>424.2958575201043</v>
@@ -1853,7 +1855,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
-        <v>373.7197913037078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>143.5846376952537</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>393.8123863604691</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>45.91568880648637</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.5414427187217</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2318,16 +2320,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>17.29388748951464</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>149.4370413361365</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>35.75633396116244</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2555,16 +2557,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>54.55340531488843</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>355.1981071186055</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2764,13 +2766,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.97358346682135</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>28.60468344882636</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>408.3378123853455</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.2906240266967</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>132.8051127118016</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430572</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>19.80087630034395</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3272,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>110.6735165356747</v>
+        <v>343.0610123311219</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225712</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>115.0078226534528</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>93.35579545862593</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.0762501345448</v>
+        <v>138.0197822400951</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>383.3590907834184</v>
+        <v>200.6541137850469</v>
       </c>
       <c r="E44" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>115.4012337133193</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>23.21215624113652</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.2475145542517</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>381.2475145542517</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
         <v>33.94366860160834</v>
@@ -4331,7 +4333,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1628.844660377785</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1266.227710311611</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>861.3722557226442</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.2475145542517</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.0970671107308</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>213.9076881660332</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>48.02969536755589</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,43 +4497,43 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
+        <v>452.1535503695694</v>
+      </c>
+      <c r="N4" t="n">
         <v>872.2064493144727</v>
       </c>
-      <c r="N4" t="n">
-        <v>930.0072868842942</v>
-      </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1291.875698540254</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1639.382592510596</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>428.0970671107308</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.0970671107308</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>891.5238064999317</v>
+      </c>
+      <c r="C5" t="n">
+        <v>891.5238064999317</v>
+      </c>
+      <c r="D5" t="n">
         <v>462.9421322372</v>
-      </c>
-      <c r="C5" t="n">
-        <v>462.9421322372</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.36045797446834</v>
       </c>
       <c r="E5" t="n">
         <v>34.36045797446834</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>871.2282559375466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>871.2282559375466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>462.9421322372</v>
+        <v>1317.823376984839</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,34 +4634,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.5714734656729</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C7" t="n">
-        <v>301.0097619488978</v>
+        <v>228.0909188383097</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4729,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>929.7110254252771</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C8" t="n">
-        <v>501.1293511625454</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D8" t="n">
-        <v>501.1293511625454</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E8" t="n">
-        <v>72.54767689981372</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F8" t="n">
-        <v>72.54767689981372</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G8" t="n">
-        <v>72.54767689981372</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4805,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O8" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="L8" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M8" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N8" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X8" t="n">
-        <v>929.7110254252771</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="Y8" t="n">
-        <v>929.7110254252771</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.4693996828083</v>
+        <v>461.0433221421854</v>
       </c>
       <c r="C10" t="n">
-        <v>386.4693996828083</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="D10" t="n">
-        <v>386.4693996828083</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E10" t="n">
-        <v>386.4693996828083</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F10" t="n">
-        <v>209.7623456445645</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G10" t="n">
-        <v>209.7623456445645</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>69.860171334939</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>91.74450617142992</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4993,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1397.69977062736</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1125.673366213652</v>
       </c>
       <c r="X10" t="n">
-        <v>613.8890703687</v>
+        <v>880.2816115470644</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.4693996828083</v>
+        <v>652.8619408611726</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1319.391236090724</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C11" t="n">
         <v>890.8095618279922</v>
@@ -5039,19 +5041,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5081,10 +5083,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.391236090724</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>1319.391236090724</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="12">
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>664.9024004297028</v>
+        <v>451.6896561077215</v>
       </c>
       <c r="C13" t="n">
-        <v>664.9024004297028</v>
+        <v>451.6896561077215</v>
       </c>
       <c r="D13" t="n">
-        <v>546.0000013632873</v>
+        <v>451.6896561077215</v>
       </c>
       <c r="E13" t="n">
-        <v>376.2419976140245</v>
+        <v>451.6896561077215</v>
       </c>
       <c r="F13" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L13" t="n">
-        <v>269.215608100497</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M13" t="n">
-        <v>689.2685070454004</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
         <v>1528.990655216085</v>
@@ -5221,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X13" t="n">
-        <v>892.3220711155946</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="Y13" t="n">
-        <v>664.9024004297028</v>
+        <v>451.6896561077215</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>866.0284050065428</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C14" t="n">
-        <v>462.9421322372</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D14" t="n">
-        <v>462.9421322372</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="E14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L14" t="n">
         <v>453.9965675465116</v>
@@ -5288,16 +5290,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5315,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5363,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>1224.671464618085</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.671464618085</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.671464618085</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.671464618085</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.010651986078</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.0704516497129</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>422.0704516497129</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>422.0704516497129</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>422.0704516497129</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>422.0704516497129</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5443,16 +5445,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5476,10 +5478,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>613.8890703687</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>613.8890703687</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.601755817686</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="D17" t="n">
-        <v>840.020081554954</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E17" t="n">
-        <v>411.4384072922223</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5598,19 +5600,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5677,7 +5679,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M19" t="n">
         <v>857.4612819097326</v>
@@ -5695,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V19" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W19" t="n">
-        <v>433.2298803720686</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X19" t="n">
-        <v>288.1948928011053</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>288.1948928011053</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1835.475132246173</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C20" t="n">
-        <v>1397.332659429597</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D20" t="n">
-        <v>961.4228746040412</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E20" t="n">
-        <v>527.6481297623363</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
-        <v>99.78070017154408</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2261.774702731081</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>377.9595414948409</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1038.799596036619</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>867.0923738769416</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>694.5306623601665</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>528.6526695616892</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>358.8946658124264</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>358.8946658124264</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>193.303390838254</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434797</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013252</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.089189266357</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1678.133681136788</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.107276723079</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X22" t="n">
-        <v>1160.715522056492</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y22" t="n">
-        <v>933.2958513705998</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>505.0613239649254</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6020,19 +6022,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>2215.395219088166</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V23" t="n">
-        <v>2215.395219088166</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W23" t="n">
-        <v>2215.395219088166</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X23" t="n">
-        <v>2215.395219088166</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H25" t="n">
         <v>53.40121652862856</v>
@@ -6157,7 +6159,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O25" t="n">
         <v>2154.361157596754</v>
@@ -6169,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1361.228219012466</v>
+        <v>917.1784309449763</v>
       </c>
       <c r="C26" t="n">
-        <v>923.0857461958889</v>
+        <v>917.1784309449763</v>
       </c>
       <c r="D26" t="n">
-        <v>487.1759613703334</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="E26" t="n">
-        <v>53.40121652862856</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6230,46 +6232,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2614.956376618409</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2614.956376618409</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>2614.956376618409</v>
+        <v>1748.333456018851</v>
       </c>
       <c r="W26" t="n">
-        <v>2614.956376618409</v>
+        <v>1343.478001429884</v>
       </c>
       <c r="X26" t="n">
-        <v>2195.81391319772</v>
+        <v>1343.478001429884</v>
       </c>
       <c r="Y26" t="n">
-        <v>1787.527789497373</v>
+        <v>1343.478001429884</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6306,22 +6308,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
         <v>1599.468199913098</v>
@@ -6379,7 +6381,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6409,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013251</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.45937714051</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>455.2158372782247</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C29" t="n">
-        <v>455.2158372782247</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D29" t="n">
-        <v>455.2158372782247</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E29" t="n">
-        <v>455.2158372782247</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F29" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G29" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>687.540662806093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M29" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N29" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O29" t="n">
-        <v>2009.22077188965</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.060826431428</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>2107.11942280532</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W29" t="n">
-        <v>1702.263968216353</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.801531463479</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y29" t="n">
-        <v>881.5154077631325</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6536,16 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J30" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K30" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L30" t="n">
         <v>1058.729261281022</v>
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C31" t="n">
-        <v>590.3333424294652</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D31" t="n">
-        <v>424.4553496309879</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E31" t="n">
-        <v>254.6973458817252</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F31" t="n">
-        <v>77.9902918434814</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K31" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N31" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O31" t="n">
         <v>2154.361157596754</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.819457729424</v>
+        <v>2593.428272794124</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.94001130788</v>
+        <v>2347.54882637258</v>
       </c>
       <c r="U31" t="n">
-        <v>1986.507010560985</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V31" t="n">
-        <v>1699.551502431415</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W31" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.133343351119</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y31" t="n">
-        <v>954.7136726652275</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1744.502472739146</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="C32" t="n">
-        <v>1306.35999992257</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D32" t="n">
-        <v>1306.35999992257</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E32" t="n">
-        <v>1172.213421425801</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F32" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G32" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O32" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.11942280532</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739146</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W32" t="n">
-        <v>1744.502472739146</v>
+        <v>1682.521194649327</v>
       </c>
       <c r="X32" t="n">
-        <v>1744.502472739146</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y32" t="n">
-        <v>1744.502472739146</v>
+        <v>855.0926075282906</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C33" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D33" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E33" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F33" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G33" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>2012.149109705013</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="L33" t="n">
-        <v>2012.149109705013</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="M33" t="n">
-        <v>2012.149109705013</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N33" t="n">
-        <v>2012.149109705013</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="O33" t="n">
-        <v>2012.149109705013</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P33" t="n">
-        <v>2012.149109705013</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q33" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R33" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S33" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T33" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U33" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V33" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W33" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X33" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y33" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1043.799427915185</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C34" t="n">
-        <v>871.2377163984103</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D34" t="n">
-        <v>705.359723599933</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E34" t="n">
-        <v>535.6017198506702</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F34" t="n">
-        <v>358.8946658124264</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G34" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T34" t="n">
-        <v>2545.844385276825</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U34" t="n">
-        <v>2267.41138452993</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V34" t="n">
-        <v>1980.45587640036</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W34" t="n">
-        <v>1708.429471986652</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X34" t="n">
-        <v>1463.037717320064</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y34" t="n">
-        <v>1235.618046634173</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1789.095648603258</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="C35" t="n">
-        <v>1350.953175786681</v>
+        <v>917.5952203178363</v>
       </c>
       <c r="D35" t="n">
-        <v>915.0433909611256</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E35" t="n">
-        <v>481.2686461194208</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6965,22 +6967,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V35" t="n">
-        <v>2215.395219088166</v>
+        <v>1760.59314772338</v>
       </c>
       <c r="W35" t="n">
-        <v>2215.395219088166</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="X35" t="n">
-        <v>2215.395219088166</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2215.395219088166</v>
+        <v>1355.737693134413</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482438</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314687</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329914</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837287</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454849</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131252</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7126,13 +7128,13 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262988</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
         <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.76646671971</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
         <v>1341.374712053123</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1011.477214236518</v>
+        <v>169.5707343603991</v>
       </c>
       <c r="C38" t="n">
-        <v>1011.477214236518</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="D38" t="n">
-        <v>575.5674294109622</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E38" t="n">
-        <v>575.5674294109622</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F38" t="n">
-        <v>147.6999998201699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G38" t="n">
         <v>53.40121652862856</v>
@@ -7202,22 +7204,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W38" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X38" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y38" t="n">
-        <v>1437.776784721425</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C40" t="n">
-        <v>590.3333424294652</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D40" t="n">
-        <v>424.4553496309879</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E40" t="n">
-        <v>254.6973458817252</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F40" t="n">
-        <v>77.9902918434814</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I40" t="n">
         <v>53.40121652862856</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.819457729424</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431415</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.133343351119</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.7136726652275</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.512437976118</v>
+        <v>781.090633274849</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.369965159541</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D41" t="n">
-        <v>915.4601803339856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E41" t="n">
-        <v>481.6854354922808</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F41" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G41" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H41" t="n">
         <v>53.81800590148855</v>
@@ -7412,16 +7414,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
@@ -7436,25 +7438,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2410.838523748444</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>2410.838523748444</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X41" t="n">
-        <v>2410.838523748444</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y41" t="n">
-        <v>2215.812008461025</v>
+        <v>781.090633274849</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7487,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J42" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K42" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L42" t="n">
         <v>1058.729261281022</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
         <v>53.40121652862856</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T43" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U43" t="n">
-        <v>2127.509210220304</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.553702090735</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W43" t="n">
-        <v>1568.527297677026</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X43" t="n">
-        <v>1323.135543010439</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.040966659728</v>
+        <v>1556.283576165761</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.040966659728</v>
+        <v>1118.141103349185</v>
       </c>
       <c r="D44" t="n">
-        <v>890.8095618279922</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2278875652606</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>1107.976466382457</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="X44" t="n">
-        <v>1278.040966659728</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1278.040966659728</v>
+        <v>1556.283576165761</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T46" t="n">
-        <v>1399.957337343059</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>1399.957337343059</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>1113.00182921349</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W46" t="n">
-        <v>1113.00182921349</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.00182921349</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.00182921349</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>424.2958575201044</v>
@@ -8058,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,10 +8145,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>58.38468441396094</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>385.2554146752023</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8377,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,25 +8455,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8535,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8845,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9091,19 +9093,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>312.7888501519116</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9325,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>20.13097499434639</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>88.52591951400984</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -9659,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>30.03100411261585</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10048,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10279,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10349,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>316.389926674475</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158827</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>88.52591951400984</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O41" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
         <v>667.515206607857</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22550,7 +22552,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>87.71987948418302</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>188.9746976505468</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>154.115257213482</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>237.8563519911972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22790,7 +22792,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22838,19 +22840,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>198.7321378633001</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.63680989872091</v>
       </c>
     </row>
     <row r="6">
@@ -22945,13 +22947,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.88420416844605</v>
+        <v>146.9534186340195</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>248.0208847959926</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>182.5679097293038</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>52.21601202707407</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>231.0177821470767</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
@@ -23321,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>40.93676673668585</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>20.84417167992473</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>46.50583779474124</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>151.5833203908406</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.70563804676152</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>53.45792334953444</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23665,13 +23667,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>5.966349306407778</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>9.465190568306582</v>
+        <v>59.74677603861437</v>
       </c>
       <c r="D17" t="n">
         <v>7.254829457195569</v>
@@ -23741,7 +23743,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
-        <v>49.86896399117649</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23750,7 +23752,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23902,13 +23904,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>99.35319942466796</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>39.94866172794178</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>351.4681642564824</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.3589898130755</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24206,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>416.4671605988963</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24224,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>107.1930383200168</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>135.0797604404449</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>163.3131495408033</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>3.792673446906235</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.1718905122115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>330.3860971166854</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>6.613226401136899</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>25.74595075336202</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>296.6318846814862</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>223.1369608195777</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>248.317264029837</v>
+        <v>15.92976823438983</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>318.7532254349581</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>304.0280576043428</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25442,13 +25444,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>211.1270123287983</v>
+        <v>266.183480223248</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>48.19159619388154</v>
+        <v>230.896573192253</v>
       </c>
       <c r="E44" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>128.01941824401</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>201.9333177378963</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355085.0146771067</v>
+        <v>355085.0146771068</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355085.0146771067</v>
+        <v>355085.0146771069</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499518.7271571581</v>
+        <v>355085.0146771069</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499518.7271571581</v>
+        <v>499518.7271571582</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499518.7271571581</v>
+        <v>499518.7271571582</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499518.7271571581</v>
+        <v>499518.7271571582</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499518.7271571581</v>
+        <v>499518.7271571583</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499518.7271571581</v>
+        <v>499518.7271571582</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499518.7271571581</v>
+        <v>499518.7271571582</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355085.0146771067</v>
+        <v>499518.7271571581</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="C2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="D2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="E2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="F2" t="n">
         <v>90151.75317155513</v>
@@ -26329,22 +26331,22 @@
         <v>90151.75317155513</v>
       </c>
       <c r="H2" t="n">
-        <v>126821.7106717144</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="I2" t="n">
         <v>126821.7106717144</v>
       </c>
       <c r="J2" t="n">
-        <v>126821.7106717144</v>
+        <v>126821.7106717145</v>
       </c>
       <c r="K2" t="n">
-        <v>126821.7106717144</v>
+        <v>126821.7106717145</v>
       </c>
       <c r="L2" t="n">
         <v>126821.7106717144</v>
       </c>
       <c r="M2" t="n">
-        <v>126821.7106717144</v>
+        <v>126821.7106717145</v>
       </c>
       <c r="N2" t="n">
         <v>126821.7106717144</v>
@@ -26353,7 +26355,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="P2" t="n">
-        <v>90151.75317155512</v>
+        <v>126821.7106717144</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26421,19 +26423,19 @@
         <v>24896.51517712573</v>
       </c>
       <c r="D4" t="n">
-        <v>24896.51517712573</v>
+        <v>24896.51517712572</v>
       </c>
       <c r="E4" t="n">
         <v>24896.51517712573</v>
       </c>
       <c r="F4" t="n">
-        <v>24896.51517712573</v>
+        <v>24896.51517712572</v>
       </c>
       <c r="G4" t="n">
         <v>24896.51517712573</v>
       </c>
       <c r="H4" t="n">
-        <v>35023.37484795161</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="I4" t="n">
         <v>35023.37484795162</v>
@@ -26457,7 +26459,7 @@
         <v>35023.37484795161</v>
       </c>
       <c r="P4" t="n">
-        <v>24896.51517712573</v>
+        <v>35023.37484795161</v>
       </c>
     </row>
     <row r="5">
@@ -26485,22 +26487,22 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
         <v>40584.9245617577</v>
@@ -26509,7 +26511,7 @@
         <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26524,13 @@
         <v>-136360.8508025029</v>
       </c>
       <c r="C6" t="n">
-        <v>5830.449857207066</v>
+        <v>5830.449857207059</v>
       </c>
       <c r="D6" t="n">
-        <v>5830.449857207044</v>
+        <v>5830.449857207081</v>
       </c>
       <c r="E6" t="n">
-        <v>39458.04985720704</v>
+        <v>39458.04985720706</v>
       </c>
       <c r="F6" t="n">
         <v>39458.04985720706</v>
@@ -26537,31 +26539,31 @@
         <v>39458.04985720706</v>
       </c>
       <c r="H6" t="n">
-        <v>-14409.35809601237</v>
+        <v>39458.04985720706</v>
       </c>
       <c r="I6" t="n">
-        <v>51213.41126200511</v>
+        <v>-13463.72126675915</v>
       </c>
       <c r="J6" t="n">
-        <v>-59801.05408298509</v>
+        <v>-59801.05408298508</v>
       </c>
       <c r="K6" t="n">
+        <v>51213.41126200513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51213.4112620051</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51213.41126200513</v>
+      </c>
+      <c r="N6" t="n">
         <v>51213.41126200509</v>
-      </c>
-      <c r="L6" t="n">
-        <v>51213.41126200511</v>
-      </c>
-      <c r="M6" t="n">
-        <v>51213.41126200509</v>
-      </c>
-      <c r="N6" t="n">
-        <v>51213.41126200511</v>
       </c>
       <c r="O6" t="n">
         <v>51213.41126200511</v>
       </c>
       <c r="P6" t="n">
-        <v>39458.04985720705</v>
+        <v>51213.41126200512</v>
       </c>
     </row>
   </sheetData>
@@ -26805,22 +26807,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
         <v>667.515206607857</v>
@@ -26829,7 +26831,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>243.2193490877526</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>424.2958575201044</v>
@@ -34778,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>58.38468441396105</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>58.38468441396094</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>385.2554146752023</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35097,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,25 +35175,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35255,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,19 +35813,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>312.7888501519116</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36045,10 +36047,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>20.13097499434639</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>88.52591951400984</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -36379,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,13 +36609,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>30.03100411261585</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36768,7 +36770,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,10 +36998,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37069,7 +37071,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>316.389926674475</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37081,16 +37083,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158827</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>88.52591951400984</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,10 +37791,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O41" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
         <v>667.515206607857</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38096,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49375.22026536683</v>
+        <v>43876.09537428865</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571015</v>
+        <v>23845934.64571014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.11205964</v>
+        <v>9134618.112059642</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,13 +825,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>13.94516649828807</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>26.48195270326388</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>424.2958575201043</v>
@@ -907,7 +907,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>375.5664525646222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>17.26579423647301</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60.92512596900084</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>43.90029793537735</v>
       </c>
       <c r="X8" t="n">
-        <v>232.3831290571786</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>53.06817090119712</v>
+        <v>127.8980094461206</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>224.1246983678742</v>
       </c>
       <c r="Y11" t="n">
-        <v>383.3590907834184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.35666310702078</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>44.18905645346707</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>375.9790740437533</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>29.11470191096429</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>203.1745834463908</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>424.2958575201043</v>
@@ -1855,7 +1855,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>221.1583134026086</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>56.59350938709169</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>155.8532364480161</v>
       </c>
       <c r="C20" t="n">
-        <v>393.8123863604691</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
         <v>424.2958575201043</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.0626366504663</v>
+        <v>174.0604902725266</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>17.29388748951464</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>23.05689372688154</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2377,7 +2377,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>35.75633396116244</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>18.49684237979804</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>355.1981071186055</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>410.2100036638407</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2848,16 +2848,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>28.60468344882636</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>54.66258501924893</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>144.493775385548</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.2906240266967</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>238.0174347995944</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>19.80087630034395</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>343.0610123311219</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>20.37118944668948</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>115.0078226534528</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>111.4200385268269</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3745,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>18.6496871590718</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.0197822400951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>200.6541137850469</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>212.4828355506833</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.21215624113652</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E2" t="n">
         <v>33.94366860160834</v>
@@ -4330,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1628.844660377785</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1266.227710311611</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>861.3722557226442</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>442.2297923019549</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.4693996828083</v>
+        <v>745.5978778793813</v>
       </c>
       <c r="C4" t="n">
-        <v>213.9076881660332</v>
+        <v>573.0361663626062</v>
       </c>
       <c r="D4" t="n">
-        <v>48.02969536755589</v>
+        <v>407.1581735641289</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>237.4001698148662</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>60.69311577662236</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>452.1535503695694</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1291.875698540254</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.382592510596</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>1164.83616728426</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.4693996828083</v>
+        <v>937.4164965983684</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>891.5238064999317</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C5" t="n">
-        <v>891.5238064999317</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D5" t="n">
-        <v>462.9421322372</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4612,7 +4612,7 @@
         <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.823376984839</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400.6526303550848</v>
+        <v>268.0459114002024</v>
       </c>
       <c r="C7" t="n">
-        <v>228.0909188383097</v>
+        <v>95.48419988342738</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>95.48419988342738</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>95.48419988342738</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>95.48419988342738</v>
       </c>
       <c r="G7" t="n">
         <v>33.94366860160834</v>
@@ -4731,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4712490740719</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="Y7" t="n">
-        <v>592.4712490740719</v>
+        <v>459.8645301191896</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C8" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="D8" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E8" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4837,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1290.222744725984</v>
       </c>
       <c r="X8" t="n">
-        <v>435.7582893512044</v>
+        <v>1290.222744725984</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.7582893512044</v>
+        <v>1290.222744725984</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.0433221421854</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C10" t="n">
-        <v>288.4816106254103</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4968,7 +4968,7 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M10" t="n">
         <v>1181.483761245743</v>
@@ -4989,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V10" t="n">
-        <v>1397.69977062736</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.673366213652</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2816115470644</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.8619408611726</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.8095618279922</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="C11" t="n">
-        <v>890.8095618279922</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>888.1106686773085</v>
       </c>
       <c r="Y11" t="n">
-        <v>890.8095618279922</v>
+        <v>888.1106686773085</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.6896561077215</v>
+        <v>759.3171124883345</v>
       </c>
       <c r="C13" t="n">
-        <v>451.6896561077215</v>
+        <v>586.7554009715594</v>
       </c>
       <c r="D13" t="n">
-        <v>451.6896561077215</v>
+        <v>420.8774081730821</v>
       </c>
       <c r="E13" t="n">
-        <v>451.6896561077215</v>
+        <v>420.8774081730821</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>244.1703541348383</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>78.579079160666</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
         <v>761.8145120199619</v>
@@ -5238,13 +5238,13 @@
         <v>951.1357312073217</v>
       </c>
       <c r="W13" t="n">
-        <v>679.1093267936133</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X13" t="n">
-        <v>679.1093267936133</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y13" t="n">
-        <v>451.6896561077215</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1270.883859595509</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C14" t="n">
-        <v>842.3021853327778</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D14" t="n">
-        <v>413.7205110700461</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5278,52 +5278,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q14" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>742.2162865790814</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.183430080417</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.183430080417</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1311.297388117735</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>1024.341879988165</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="C17" t="n">
-        <v>1319.391236090724</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="D17" t="n">
-        <v>890.8095618279922</v>
+        <v>685.9175786245507</v>
       </c>
       <c r="E17" t="n">
-        <v>462.2278875652606</v>
+        <v>257.3359043618191</v>
       </c>
       <c r="F17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5518,25 +5518,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5545,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8158836369145</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5673,52 +5673,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>625.5124951543789</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1288.897306380071</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C20" t="n">
         <v>891.1070171270717</v>
@@ -5752,19 +5752,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5782,22 +5782,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y20" t="n">
-        <v>1288.897306380071</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
         <v>33.94366860160834</v>
@@ -5910,25 +5910,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5952,10 +5952,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>505.0613239649254</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="C23" t="n">
-        <v>487.5927507431934</v>
+        <v>1347.77336921594</v>
       </c>
       <c r="D23" t="n">
-        <v>487.5927507431934</v>
+        <v>911.8635843903842</v>
       </c>
       <c r="E23" t="n">
-        <v>53.81800590148855</v>
+        <v>478.0888395486793</v>
       </c>
       <c r="F23" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G23" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
         <v>53.40121652862856</v>
@@ -6016,25 +6016,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739146</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.64701815018</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X23" t="n">
-        <v>1339.64701815018</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="Y23" t="n">
-        <v>931.3608944498332</v>
+        <v>1785.915842032516</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.4772326516122</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>705.359723599933</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
         <v>53.40121652862856</v>
@@ -6159,7 +6159,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
         <v>2154.361157596754</v>
@@ -6171,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1678.133681136787</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1160.715522056491</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>933.2958513705994</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>917.1784309449763</v>
+        <v>1754.583695154438</v>
       </c>
       <c r="C26" t="n">
-        <v>917.1784309449763</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D26" t="n">
-        <v>481.2686461194209</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6244,10 +6244,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2567.725273443752</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2567.725273443752</v>
       </c>
       <c r="V26" t="n">
-        <v>1748.333456018851</v>
+        <v>2567.725273443752</v>
       </c>
       <c r="W26" t="n">
-        <v>1343.478001429884</v>
+        <v>2162.869818854785</v>
       </c>
       <c r="X26" t="n">
-        <v>1343.478001429884</v>
+        <v>2162.869818854785</v>
       </c>
       <c r="Y26" t="n">
-        <v>1343.478001429884</v>
+        <v>1754.583695154438</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T28" t="n">
-        <v>2489.401636434797</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U28" t="n">
-        <v>2210.968635687902</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2078.225803160042</v>
+        <v>1158.282741516533</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.083330343465</v>
+        <v>1158.282741516533</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.173545517909</v>
+        <v>1158.282741516533</v>
       </c>
       <c r="E29" t="n">
-        <v>770.3988006762045</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F29" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6469,22 +6469,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M29" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N29" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O29" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V29" t="n">
-        <v>2078.225803160042</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W29" t="n">
-        <v>2078.225803160042</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X29" t="n">
-        <v>2078.225803160042</v>
+        <v>1584.582312001441</v>
       </c>
       <c r="Y29" t="n">
-        <v>2078.225803160042</v>
+        <v>1584.582312001441</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
         <v>1058.729261281022</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C31" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2593.428272794124</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T31" t="n">
-        <v>2347.54882637258</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>2069.115825625685</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V31" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W31" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X31" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C32" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6718,34 +6718,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.993599304467</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2449.993599304467</v>
+        <v>2345.987301302543</v>
       </c>
       <c r="V32" t="n">
-        <v>2087.376649238293</v>
+        <v>1983.37035123637</v>
       </c>
       <c r="W32" t="n">
-        <v>1682.521194649327</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="X32" t="n">
-        <v>1263.378731228637</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="Y32" t="n">
-        <v>855.0926075282906</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6782,22 +6782,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
         <v>1599.468199913098</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>966.8681021663376</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>794.3063906495626</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>628.4283978510853</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>458.6703941018225</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1386.106391571217</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1158.686720885325</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.737693134413</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="C35" t="n">
-        <v>917.5952203178363</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D35" t="n">
-        <v>481.6854354922808</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E35" t="n">
-        <v>481.6854354922808</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F35" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6955,34 +6955,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.119422805321</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V35" t="n">
-        <v>1760.59314772338</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W35" t="n">
-        <v>1355.737693134413</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="X35" t="n">
-        <v>1355.737693134413</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="Y35" t="n">
-        <v>1355.737693134413</v>
+        <v>2066.799690201233</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644543</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>169.5707343603991</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C38" t="n">
-        <v>53.40121652862856</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D38" t="n">
-        <v>53.40121652862856</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E38" t="n">
-        <v>53.40121652862856</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F38" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
         <v>53.40121652862856</v>
@@ -7177,16 +7177,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
@@ -7210,16 +7210,16 @@
         <v>2190.771296621483</v>
       </c>
       <c r="V38" t="n">
-        <v>1828.15434655531</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W38" t="n">
-        <v>1423.298891966343</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X38" t="n">
-        <v>1004.156428545654</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y38" t="n">
-        <v>595.8703048453069</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C40" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D40" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
         <v>53.40121652862856</v>
@@ -7359,25 +7359,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T40" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U40" t="n">
-        <v>2124.33055796836</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V40" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W40" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X40" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y40" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.090633274849</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="C41" t="n">
-        <v>342.9481604582723</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="D41" t="n">
-        <v>342.9481604582723</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E41" t="n">
-        <v>342.9481604582723</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F41" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
         <v>53.40121652862856</v>
@@ -7426,10 +7426,10 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q41" t="n">
         <v>2500.906761678371</v>
@@ -7453,10 +7453,10 @@
         <v>1339.64701815018</v>
       </c>
       <c r="X41" t="n">
-        <v>920.5045547294905</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y41" t="n">
-        <v>781.090633274849</v>
+        <v>1339.64701815018</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
         <v>1058.729261281022</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C43" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
         <v>53.40121652862856</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U43" t="n">
-        <v>2069.115825625685</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V43" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W43" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X43" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y43" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1556.283576165761</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C44" t="n">
-        <v>1118.141103349185</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D44" t="n">
-        <v>915.4601803339856</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E44" t="n">
-        <v>481.6854354922808</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F44" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
         <v>53.40121652862856</v>
@@ -7651,22 +7651,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M44" t="n">
-        <v>488.6559039815464</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362198</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q44" t="n">
         <v>2500.906761678371</v>
@@ -7678,22 +7678,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.186649932281</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.569699866108</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.569699866108</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X44" t="n">
-        <v>1964.569699866108</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="Y44" t="n">
-        <v>1556.283576165761</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="45">
@@ -7745,7 +7745,7 @@
         <v>1064.863269197077</v>
       </c>
       <c r="P45" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q45" t="n">
         <v>1599.468199913098</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C46" t="n">
-        <v>794.3063906495626</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D46" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E46" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F46" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G46" t="n">
         <v>281.9633400635787</v>
@@ -7806,13 +7806,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M46" t="n">
         <v>1292.433105213328</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U46" t="n">
-        <v>1986.507010560985</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.551502431415</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W46" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.133343351119</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1158.686720885325</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8379,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8616,10 +8616,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O11" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10117,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>540.0049805212332</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10591,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O38" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
         <v>667.515206607857</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5272350047205</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="Q45" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,7 +11463,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -22555,7 +22555,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>361.7816153876813</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22603,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>188.9746976505468</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,13 +22713,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.115257213482</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>137.4534095211667</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22758,19 +22758,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>7.254829457195569</v>
@@ -22795,7 +22795,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.63680989872091</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22947,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146.9534186340195</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>103.0102362554298</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23004,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>356.9066021076997</v>
       </c>
       <c r="X8" t="n">
-        <v>182.5679097293038</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>231.0177821470767</v>
+        <v>156.1879436021532</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23278,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>190.8263404186082</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.84417167992473</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>151.5833203908406</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>94.31409611306215</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>53.45792334953444</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>371.6921981321127</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.47408729303493</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>59.74677603861437</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>7.254829457195569</v>
@@ -23743,7 +23743,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>202.4304418922757</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23752,7 +23752,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>111.4669143246784</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>266.1833383320426</v>
       </c>
       <c r="C20" t="n">
-        <v>39.94866172794178</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
         <v>7.254829457195569</v>
@@ -24022,7 +24022,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.83779588133098</v>
+        <v>15.83994225927069</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24138,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>416.4671605988963</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>400.5318615680028</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.0797604404449</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>199.3697124758937</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>3.792673446906235</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>19.22699372944709</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>330.3860971166854</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25.74595075336202</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>18.61264485655883</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.1369608195777</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>15.92976823438983</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>383.8320730166536</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>318.7532254349581</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>247.5707420386848</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>412.9009998182281</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.183480223248</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>230.896573192253</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>191.7204269126598</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.9333177378963</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355085.0146771068</v>
+        <v>355085.0146771067</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355085.0146771068</v>
+        <v>355085.0146771069</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355085.0146771069</v>
+        <v>355085.0146771068</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355085.0146771069</v>
+        <v>355085.0146771068</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499518.7271571582</v>
+        <v>499518.7271571581</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499518.7271571583</v>
+        <v>499518.7271571581</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499518.7271571582</v>
+        <v>499518.7271571581</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499518.7271571582</v>
+        <v>499518.7271571581</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="C2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="D2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="E2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="F2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155516</v>
       </c>
       <c r="G2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="H2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="I2" t="n">
         <v>126821.7106717144</v>
       </c>
       <c r="J2" t="n">
-        <v>126821.7106717145</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="K2" t="n">
-        <v>126821.7106717145</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="L2" t="n">
         <v>126821.7106717144</v>
       </c>
       <c r="M2" t="n">
-        <v>126821.7106717145</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="N2" t="n">
         <v>126821.7106717144</v>
@@ -26423,13 +26423,13 @@
         <v>24896.51517712573</v>
       </c>
       <c r="D4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="E4" t="n">
         <v>24896.51517712573</v>
       </c>
       <c r="F4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="G4" t="n">
         <v>24896.51517712573</v>
@@ -26438,28 +26438,28 @@
         <v>24896.51517712573</v>
       </c>
       <c r="I4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="L4" t="n">
         <v>35023.37484795162</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="N4" t="n">
         <v>35023.37484795162</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>35023.37484795162</v>
       </c>
-      <c r="L4" t="n">
-        <v>35023.37484795161</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>35023.37484795162</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35023.37484795161</v>
-      </c>
-      <c r="O4" t="n">
-        <v>35023.37484795161</v>
-      </c>
-      <c r="P4" t="n">
-        <v>35023.37484795161</v>
       </c>
     </row>
     <row r="5">
@@ -26493,16 +26493,16 @@
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
         <v>40584.9245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136360.8508025029</v>
+        <v>-137100.2074144185</v>
       </c>
       <c r="C6" t="n">
-        <v>5830.449857207059</v>
+        <v>5091.093245291413</v>
       </c>
       <c r="D6" t="n">
-        <v>5830.449857207081</v>
+        <v>5091.093245291406</v>
       </c>
       <c r="E6" t="n">
-        <v>39458.04985720706</v>
+        <v>38718.69324529141</v>
       </c>
       <c r="F6" t="n">
-        <v>39458.04985720706</v>
+        <v>38718.69324529143</v>
       </c>
       <c r="G6" t="n">
-        <v>39458.04985720706</v>
+        <v>38718.6932452914</v>
       </c>
       <c r="H6" t="n">
-        <v>39458.04985720706</v>
+        <v>38718.69324529139</v>
       </c>
       <c r="I6" t="n">
-        <v>-13463.72126675915</v>
+        <v>-13958.61149534042</v>
       </c>
       <c r="J6" t="n">
-        <v>-59801.05408298508</v>
+        <v>-60295.94431156631</v>
       </c>
       <c r="K6" t="n">
-        <v>51213.41126200513</v>
+        <v>50718.52103342385</v>
       </c>
       <c r="L6" t="n">
-        <v>51213.4112620051</v>
+        <v>50718.52103342384</v>
       </c>
       <c r="M6" t="n">
-        <v>51213.41126200513</v>
+        <v>50718.52103342385</v>
       </c>
       <c r="N6" t="n">
-        <v>51213.41126200509</v>
+        <v>50718.52103342384</v>
       </c>
       <c r="O6" t="n">
-        <v>51213.41126200511</v>
+        <v>50718.52103342384</v>
       </c>
       <c r="P6" t="n">
-        <v>51213.41126200512</v>
+        <v>50718.52103342385</v>
       </c>
     </row>
   </sheetData>
@@ -26813,16 +26813,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
         <v>667.515206607857</v>
@@ -27035,7 +27035,7 @@
         <v>243.2193490877526</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35099,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35336,10 +35336,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O11" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36524,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36600,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36837,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37001,10 +37001,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>540.0049805212332</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37311,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,7 +37545,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O38" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
         <v>667.515206607857</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5272350047205</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="Q45" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38183,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
